--- a/11-CollaborationList/Cockcroft.xlsx
+++ b/11-CollaborationList/Cockcroft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104355DB-4452-364A-914F-536564E3E766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BED1FAC-3E94-AE40-AD56-A70610356613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{A23F18C5-DD0F-7644-985A-7269B47852C9}"/>
+    <workbookView xWindow="39680" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{A23F18C5-DD0F-7644-985A-7269B47852C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cockcroft" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Title</t>
   </si>
@@ -275,6 +275,30 @@
   </si>
   <si>
     <t>S. Jamison</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Whyte</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>colin.whyte@strath.ac.uk</t>
+  </si>
+  <si>
+    <t>C. Whyte</t>
+  </si>
+  <si>
+    <t>Department of Physics, SUPA, University of Strathclyde, Glasgow G4 0NG, UK</t>
+  </si>
+  <si>
+    <t>ProgMan</t>
+  </si>
+  <si>
+    <t>CI-Strathcluyde</t>
   </si>
 </sst>
 </file>
@@ -830,8 +854,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D05EE56F-FEAB-4B4D-994F-11C8E42F1139}" name="Table1" displayName="Table1" ref="A1:P11" totalsRowShown="0">
-  <autoFilter ref="A1:P11" xr:uid="{D05EE56F-FEAB-4B4D-994F-11C8E42F1139}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D05EE56F-FEAB-4B4D-994F-11C8E42F1139}" name="Table1" displayName="Table1" ref="A1:P12" totalsRowShown="0">
+  <autoFilter ref="A1:P12" xr:uid="{D05EE56F-FEAB-4B4D-994F-11C8E42F1139}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{91395D5E-DB89-DE4E-AD47-72EE2567890E}" name="Title"/>
     <tableColumn id="2" xr3:uid="{FB70866C-52B1-D44E-A049-E18F2856C6D2}" name="Name"/>
@@ -1171,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98F3065-14F5-4047-A0B1-B7D22D5F3745}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1608,6 +1632,44 @@
         <v>54</v>
       </c>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{28018000-E027-F845-B984-1F3F1831D0CC}"/>

--- a/11-CollaborationList/Cockcroft.xlsx
+++ b/11-CollaborationList/Cockcroft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BED1FAC-3E94-AE40-AD56-A70610356613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AD2E66-049E-3144-8A99-D350802A3BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39680" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{A23F18C5-DD0F-7644-985A-7269B47852C9}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{A23F18C5-DD0F-7644-985A-7269B47852C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cockcroft" sheetId="1" r:id="rId1"/>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1444,6 +1444,9 @@
       <c r="H6" t="s">
         <v>39</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
